--- a/biology/Botanique/Iceberg_(rose)/Iceberg_(rose).xlsx
+++ b/biology/Botanique/Iceberg_(rose)/Iceberg_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Fée des Neiges' est un cultivar fort répandu de rosier floribunda. C'est un des rosiers les plus vendus au monde car il est fort prisé pour l'abondance de sa floraison et pour sa robustesse. Il a été distingué comme rose favorite du monde, en 1983. Il est remarquable par la blancheur de ses pétales.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier triploïde a été créé en 1958 en Allemagne par Reimer Kordes de la maison Kordes sous la référence 'Korbin' et le nom commercial de 'Schneewittchen'[1]. Ce rosier est connu aussi sous le nom d' 'Iceberg' dans les pays de langue anglaise.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier triploïde a été créé en 1958 en Allemagne par Reimer Kordes de la maison Kordes sous la référence 'Korbin' et le nom commercial de 'Schneewittchen'. Ce rosier est connu aussi sous le nom d' 'Iceberg' dans les pays de langue anglaise.
 C'est un croisement de 'Robin Hood' (1927, Pemberton), hybride de Rosa moschata, et de 'Virgo' (1947, Charles Mallerin), hybride de thé.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier forme un buisson qui peut atteindre plus d'1,50 m de hauteur, mais il existe une version grimpante.
 Ses roses doubles (une vingtaine de pétales), blanches et parfumées mesurent environ 6 cm de diamètre et fleurissent de mi-mai à début novembre.
@@ -577,7 +593,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a donné notamment naissance à la rose anglaise 'Heritage' (Austin, 1984) par croisement avec 'Wife of Bath' (Austin, 1969), ou encore à 'English Garden' (Austin, 1986).
 </t>
@@ -608,7 +626,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>RNS Gold 1958
 ADR-Rose 1960
